--- a/Ecopulpers/Charts/FAO Land Change by Activities.xlsx
+++ b/Ecopulpers/Charts/FAO Land Change by Activities.xlsx
@@ -414,10 +414,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>7.2571022116108e-06</v>
+        <v>-1.279475029036803e-06</v>
       </c>
       <c r="C2">
-        <v>6.631490738762125e-07</v>
+        <v>-1.169175596338334e-07</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -425,10 +425,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>3.194799091943423e-09</v>
+        <v>-5.813111944519278e-05</v>
       </c>
       <c r="C3">
-        <v>9.213536600327643e-10</v>
+        <v>-1.676448038523404e-05</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.184503162221517e-09</v>
+        <v>-0.0004265592784378214</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -447,10 +447,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>4.805172260091695e-09</v>
+        <v>-2.197488923272317e-06</v>
       </c>
       <c r="C5">
-        <v>4.390933727727031e-10</v>
+        <v>-2.008050463131461e-07</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -458,10 +458,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1.671874406383722e-05</v>
+        <v>-1.947747591657389e-06</v>
       </c>
       <c r="C6">
-        <v>1.52774721584592e-06</v>
+        <v>-1.779838214588381e-07</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -469,10 +469,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>2.536213287385181e-06</v>
+        <v>-0.0007524151169491233</v>
       </c>
       <c r="C7">
-        <v>1.666966227276134e-07</v>
+        <v>-6.872928310031057e-05</v>
       </c>
     </row>
   </sheetData>

--- a/Ecopulpers/Charts/FAO Land Change by Activities.xlsx
+++ b/Ecopulpers/Charts/FAO Land Change by Activities.xlsx
@@ -414,10 +414,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>-1.279475029036803e-06</v>
+        <v>-0.0001240510425049024</v>
       </c>
       <c r="C2">
-        <v>-1.169175596338334e-07</v>
+        <v>-1.133570006395246e-05</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -425,10 +425,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>-5.813111944519278e-05</v>
+        <v>-0.005636044570621834</v>
       </c>
       <c r="C3">
-        <v>-1.676448038523404e-05</v>
+        <v>-0.001625383435943206</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>-0.0004265592784378214</v>
+        <v>-0.04135662873497381</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -447,10 +447,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>-2.197488923272317e-06</v>
+        <v>-0.0002130553398704826</v>
       </c>
       <c r="C5">
-        <v>-2.008050463131461e-07</v>
+        <v>-1.946885234516138e-05</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -458,10 +458,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>-1.947747591657389e-06</v>
+        <v>-0.0001888587432858913</v>
       </c>
       <c r="C6">
-        <v>-1.779838214588381e-07</v>
+        <v>-1.725778095362784e-05</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -469,10 +469,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>-0.0007524151169491233</v>
+        <v>-0.07294965438723011</v>
       </c>
       <c r="C7">
-        <v>-6.872928310031057e-05</v>
+        <v>-0.006663578872519338</v>
       </c>
     </row>
   </sheetData>
